--- a/app/data/absenteeism_data_6.xlsx
+++ b/app/data/absenteeism_data_6.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54072</v>
+        <v>55550</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lavínia Cardoso</t>
+          <t>Ana Beatriz Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3642.92</v>
+        <v>11188.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72368</v>
+        <v>53225</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Mirella Novaes</t>
+          <t>Dr. Kaique Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>9190.719999999999</v>
+        <v>9162.219999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57539</v>
+        <v>99232</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fernanda Pereira</t>
+          <t>Bernardo Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>6319.14</v>
+        <v>9364.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75787</v>
+        <v>91395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nina Rodrigues</t>
+          <t>Ana Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>7239.69</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68973</v>
+        <v>91136</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Lorena Freitas</t>
+          <t>Luiz Felipe Alves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>8849.76</v>
+        <v>4700.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62687</v>
+        <v>9949</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camila Silva</t>
+          <t>Vitor das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>4303.88</v>
+        <v>4831.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59312</v>
+        <v>378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Júlia Gomes</t>
+          <t>Luiz Miguel Porto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,97 +671,97 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>10011.08</v>
+        <v>12143.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76238</v>
+        <v>8100</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Enzo Gabriel Monteiro</t>
+          <t>Bárbara Nascimento</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>9717.540000000001</v>
+        <v>4960.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92224</v>
+        <v>52674</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Isabella da Cruz</t>
+          <t>Camila da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>9416.209999999999</v>
+        <v>10368.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95604</v>
+        <v>41289</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Pietro Pereira</t>
+          <t>Ana Sophia Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>10994.23</v>
+        <v>3646.26</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_6.xlsx
+++ b/app/data/absenteeism_data_6.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33274</v>
+        <v>68774</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yasmin Nascimento</t>
+          <t>Vitor Gabriel Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>8280.43</v>
+        <v>11728.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31727</v>
+        <v>21557</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruno Costela</t>
+          <t>Mirella Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>8908.700000000001</v>
+        <v>8081.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53160</v>
+        <v>78162</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agatha Cunha</t>
+          <t>Sra. Luana Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>11848.88</v>
+        <v>4163.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27360</v>
+        <v>29354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Levi Caldeira</t>
+          <t>Eduarda Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>6893.51</v>
+        <v>8421.610000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35620</v>
+        <v>51557</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Julia da Costa</t>
+          <t>Maria Alice Ribeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>9629.860000000001</v>
+        <v>7283.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44948</v>
+        <v>21154</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Ana Julia Nascimento</t>
+          <t>Srta. Manuela Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>5294.96</v>
+        <v>11559.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13656</v>
+        <v>49627</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Benício Farias</t>
+          <t>Danilo Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,84 +664,84 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9148.99</v>
+        <v>11598.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6152</v>
+        <v>68249</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Letícia Gonçalves</t>
+          <t>Alexia Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>12199.78</v>
+        <v>2652.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54332</v>
+        <v>3795</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Eduarda Moreira</t>
+          <t>Dr. Benjamin Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>10287.89</v>
+        <v>7130.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53577</v>
+        <v>62505</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Giovanna Aragão</t>
+          <t>Lorena Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>3112.84</v>
+        <v>2933.28</v>
       </c>
     </row>
   </sheetData>
